--- a/IO.xlsx
+++ b/IO.xlsx
@@ -627,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -657,7 +657,7 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -665,7 +665,7 @@
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -673,7 +673,7 @@
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
     </row>
@@ -681,7 +681,7 @@
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>37</v>
       </c>
     </row>
@@ -689,7 +689,7 @@
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
     </row>
@@ -697,7 +697,7 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -721,7 +721,7 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -729,7 +729,7 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
     </row>
@@ -769,7 +769,7 @@
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>60</v>
       </c>
     </row>
@@ -777,7 +777,7 @@
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>57</v>
       </c>
     </row>
@@ -809,7 +809,7 @@
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>52</v>
       </c>
     </row>
@@ -817,7 +817,7 @@
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>48</v>
       </c>
     </row>
@@ -825,7 +825,7 @@
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>49</v>
       </c>
     </row>
@@ -833,7 +833,7 @@
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>50</v>
       </c>
     </row>
@@ -849,7 +849,7 @@
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>35</v>
       </c>
     </row>
@@ -857,7 +857,7 @@
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -865,7 +865,7 @@
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
     </row>

--- a/IO.xlsx
+++ b/IO.xlsx
@@ -308,7 +308,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -319,6 +319,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -625,9 +626,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -657,7 +658,7 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>58</v>
       </c>
     </row>
@@ -697,7 +698,7 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -705,7 +706,7 @@
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>46</v>
       </c>
     </row>
@@ -713,7 +714,7 @@
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -737,7 +738,7 @@
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -745,7 +746,7 @@
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -753,7 +754,7 @@
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
     </row>
@@ -761,43 +762,44 @@
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
@@ -805,39 +807,39 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
@@ -845,15 +847,15 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
         <v>26</v>
       </c>
@@ -861,7 +863,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -869,7 +871,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -877,7 +879,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>

--- a/IO.xlsx
+++ b/IO.xlsx
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -843,7 +843,7 @@
       <c r="A27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/IO.xlsx
+++ b/IO.xlsx
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -803,7 +803,7 @@
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -875,7 +875,7 @@
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -883,7 +883,7 @@
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>54</v>
       </c>
     </row>
@@ -891,7 +891,7 @@
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>55</v>
       </c>
     </row>
@@ -899,7 +899,7 @@
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>56</v>
       </c>
     </row>

--- a/IO.xlsx
+++ b/IO.xlsx
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -650,7 +650,7 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>63</v>
       </c>
     </row>
@@ -658,7 +658,7 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -698,7 +698,7 @@
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>51</v>
       </c>
     </row>
@@ -770,7 +770,7 @@
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>60</v>
       </c>
     </row>
@@ -778,7 +778,7 @@
       <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -811,7 +811,7 @@
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>52</v>
       </c>
     </row>
@@ -819,7 +819,7 @@
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -827,7 +827,7 @@
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>49</v>
       </c>
     </row>
@@ -835,7 +835,7 @@
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
     </row>
@@ -851,7 +851,7 @@
       <c r="A28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>35</v>
       </c>
     </row>

--- a/IO.xlsx
+++ b/IO.xlsx
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -887,7 +887,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -895,13 +895,14 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="C34" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/IO.xlsx
+++ b/IO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>PA0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,117 +122,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>5V控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>温控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陀螺仪SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陀螺仪SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX2语音识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX2语音识别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONNECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX3音频播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX3音频播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RX1通信调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TX1通信调试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM1-CH1电机IN2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步进2</t>
+  </si>
+  <si>
+    <t>步进3</t>
+  </si>
+  <si>
+    <t>步进4</t>
+  </si>
+  <si>
+    <t>步进1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HALL4</t>
+  </si>
+  <si>
+    <t>控制3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HALL5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM1-CH4电机IN4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触摸键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>音频BUSY</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5V控制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>温控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陀螺仪SDA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陀螺仪SCL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX2语音识别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX2语音识别</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CONNECT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX3音频播放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX3音频播放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RX1通信调试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TX1通信调试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IN1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM1-CH1电机IN2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步进2</t>
-  </si>
-  <si>
-    <t>步进3</t>
-  </si>
-  <si>
-    <t>步进4</t>
-  </si>
-  <si>
-    <t>控制1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步进1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HALL1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HALL2</t>
-  </si>
-  <si>
-    <t>HALL3</t>
-  </si>
-  <si>
-    <t>HALL4</t>
-  </si>
-  <si>
-    <t>控制2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HALL5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IN3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TIM1-CH4电机IN4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触摸键</t>
+    <t>HALL1-耳朵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HALL2-左</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HALL3-右</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制3-眼R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制1-眼G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制4-眼B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制2-口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -643,7 +649,7 @@
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -651,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -659,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -667,7 +673,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -675,7 +681,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -683,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -691,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -699,7 +705,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -707,7 +713,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -715,7 +721,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -723,7 +729,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -731,7 +737,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -739,7 +745,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -747,7 +753,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -771,7 +777,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -779,7 +785,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -787,7 +793,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -795,7 +801,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C21" s="4"/>
     </row>
@@ -803,16 +809,17 @@
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="B22" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
@@ -820,7 +827,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -828,7 +835,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -836,7 +843,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -844,7 +851,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.15">
@@ -852,7 +859,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.15">
@@ -860,7 +867,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -868,7 +875,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -876,7 +883,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -884,7 +891,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -892,7 +899,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -900,7 +907,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C34" s="4"/>
     </row>

--- a/IO.xlsx
+++ b/IO.xlsx
@@ -635,7 +635,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/IO.xlsx
+++ b/IO.xlsx
@@ -190,10 +190,6 @@
     <t>HALL4</t>
   </si>
   <si>
-    <t>控制3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HALL5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,6 +235,10 @@
   </si>
   <si>
     <t>控制2-口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -657,7 +657,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -665,7 +665,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -705,7 +705,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -745,7 +745,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -753,7 +753,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -777,7 +777,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -785,7 +785,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -793,7 +793,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -801,7 +801,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C21" s="4"/>
     </row>
@@ -810,7 +810,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C22" s="4"/>
     </row>
@@ -818,7 +818,7 @@
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -883,7 +883,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -891,7 +891,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -899,7 +899,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">

--- a/IO.xlsx
+++ b/IO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>PA0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,10 +146,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CONNECT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RX3音频播放</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,6 +235,18 @@
   </si>
   <si>
     <t>控制5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>损坏或不用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONNECT(模块处标识)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -314,7 +322,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -326,6 +334,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="差" xfId="2" builtinId="27"/>
@@ -632,43 +641,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -676,7 +691,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -684,7 +699,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -692,7 +707,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -700,63 +715,63 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -764,7 +779,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -777,7 +792,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -785,7 +800,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -793,7 +808,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
@@ -801,7 +816,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" s="4"/>
     </row>
@@ -810,7 +825,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="4"/>
     </row>
@@ -819,15 +834,16 @@
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>50</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
@@ -835,7 +851,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
@@ -843,7 +859,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
@@ -867,7 +883,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.15">
@@ -875,7 +891,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
@@ -883,7 +899,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
@@ -891,7 +907,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.15">
@@ -899,7 +915,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.15">
@@ -907,7 +923,7 @@
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" s="4"/>
     </row>

--- a/IO.xlsx
+++ b/IO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
   <si>
     <t>PA0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,35 +218,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>控制3-眼R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制1-眼G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制4-眼B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制2-口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>控制5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>损坏或不用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配置好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CONNECT(模块处标识)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制4-口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制3-眼B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制2-眼G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制1-眼R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头部电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中部电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件配置好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>硬件损坏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没用到</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +266,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,8 +297,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +323,11 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -313,7 +338,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -321,8 +346,11 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -335,11 +363,19 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="差" xfId="2" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -641,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -653,15 +689,15 @@
     <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -669,21 +705,24 @@
         <v>54</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -691,7 +730,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -699,7 +738,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -707,7 +746,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -715,31 +754,35 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C9" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -747,7 +790,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -755,23 +798,27 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C13" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -779,7 +826,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -800,23 +847,24 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="3" t="s">
-        <v>63</v>
+      <c r="B21" s="8" t="s">
+        <v>59</v>
       </c>
       <c r="C21" s="4"/>
     </row>
@@ -842,25 +890,28 @@
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="8" t="s">
         <v>46</v>
       </c>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="8" t="s">
         <v>47</v>
       </c>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="8" t="s">
         <v>48</v>
       </c>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
@@ -890,9 +941,10 @@
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
@@ -922,12 +974,16 @@
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="8" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="4"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C13:C14"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/IO.xlsx
+++ b/IO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
   <si>
     <t>PA0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -259,6 +259,14 @@
   </si>
   <si>
     <t>没用到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>板上调试LED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -363,12 +371,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -677,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -710,7 +718,7 @@
       <c r="E2" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -769,7 +777,7 @@
       <c r="B9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -780,7 +788,7 @@
       <c r="B10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -805,7 +813,7 @@
       <c r="B13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -816,7 +824,7 @@
       <c r="B14" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -863,7 +871,7 @@
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C21" s="4"/>
@@ -890,7 +898,7 @@
       <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C24" s="4"/>
@@ -899,7 +907,7 @@
       <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C25" s="4"/>
@@ -908,7 +916,7 @@
       <c r="A26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="4"/>
@@ -974,10 +982,18 @@
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>50</v>
       </c>
       <c r="C34" s="4"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/IO.xlsx
+++ b/IO.xlsx
@@ -242,14 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>头部电机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中部电机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>软件配置好</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -267,6 +259,14 @@
   </si>
   <si>
     <t>板上调试LED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中部电机M2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头部电机M1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -396,6 +396,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4381500" y="1866899"/>
+          <a:ext cx="2886075" cy="3848100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -687,8 +736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -713,13 +762,13 @@
         <v>54</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -778,7 +827,7 @@
         <v>44</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -814,7 +863,7 @@
         <v>53</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -989,10 +1038,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1003,5 +1052,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/IO.xlsx
+++ b/IO.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="73">
   <si>
     <t>PA0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,6 +267,10 @@
   </si>
   <si>
     <t>头部电机M1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没测</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -314,7 +318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,6 +338,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -358,7 +368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -377,6 +387,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -734,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -746,7 +760,7 @@
     <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
@@ -754,7 +768,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -770,8 +784,11 @@
       <c r="F2" s="6" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -779,7 +796,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -787,7 +804,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,7 +812,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -803,7 +820,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -811,7 +828,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -819,7 +836,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -830,7 +847,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -839,7 +856,7 @@
       </c>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -847,7 +864,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -855,7 +872,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -866,7 +883,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -875,7 +892,7 @@
       </c>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -883,7 +900,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -911,10 +928,9 @@
       <c r="A20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
@@ -929,7 +945,7 @@
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="4"/>
@@ -998,10 +1014,9 @@
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">

--- a/IO.xlsx
+++ b/IO.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="OLD" sheetId="1" r:id="rId1"/>
+    <sheet name="NEW" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="123">
   <si>
     <t>PA0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,6 +268,205 @@
   </si>
   <si>
     <t>头部电机M1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIN PORT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>PC8</t>
+  </si>
+  <si>
+    <t>PC9</t>
+  </si>
+  <si>
+    <t>IN1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN2</t>
+  </si>
+  <si>
+    <t>IN3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IN4</t>
+  </si>
+  <si>
+    <t>ENA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA11(T1-CH4)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA8(T1-CH1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPU6050 SCL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPU6051 SDA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PD2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VCC-ADJ CONTRAL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DHT11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调试串口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA10(RX1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA9(TX1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA2(TX2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA3(RX2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>树莓派通信口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONNECT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J4(VCC-ADJ)输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB11(RX3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB10(TX3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展控制器通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PB6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC0(AD10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12V电压测量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC1(AD11)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC2(AD12)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触摸键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EYE R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EYE G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EYE B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOUTH</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -358,7 +558,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -376,6 +576,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -736,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1054,4 +1260,308 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="9"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="9"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="8"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="8"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C13:C15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>